--- a/docs/site/Summary_short.xlsx
+++ b/docs/site/Summary_short.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Desktop\SajatSigStat\docs\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB5222B-72CE-4467-B933-4AC56F19A607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560498BB-37C4-47E0-9FBB-2404957086AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$P$1025</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3688,13 +3691,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D5111C-8C31-41D8-B9B5-81DFDD017381}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P1025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="D1034" sqref="D1034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -3746,7 +3754,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>2.2461730127843881E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3846,7 +3854,7 @@
         <v>0.10447939692635241</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>2.1929815234226858E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>2.2461730127843881E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3996,7 +4004,7 @@
         <v>0.11227372057958755</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>3.8215783480185853E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>2.6595744680851063E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +4154,7 @@
         <v>4.7326071007049667E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>4.6447035561978378E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4304,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>9.4950336727187661E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>5.5478349255768708E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>5.4290460078868702E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4504,7 @@
         <v>8.9968973497531662E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4554,7 @@
         <v>0.10465395786197396</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4604,7 @@
         <v>2.6595744680851063E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>2.9123968850641072E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>0.11800048678516234</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>7.0987020850156013E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>0.14013447421999126</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -4846,7 +4854,7 @@
         <v>1.6837567762816575E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>5.6967559303588565E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>1.3137612079563975E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4996,7 +5004,7 @@
         <v>2.0400171304925045E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -5046,7 +5054,7 @@
         <v>5.5478349255768708E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -5096,7 +5104,7 @@
         <v>0.11014679778202308</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>9.4950336727187661E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -5196,7 +5204,7 @@
         <v>4.6054675729644376E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -5296,7 +5304,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>5.4290460078868702E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5446,7 +5454,7 @@
         <v>0.13607042632995781</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>5.4290460078868702E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>9.5220663932787608E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>5.5478349255768708E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -5646,7 +5654,7 @@
         <v>0.14013447421999126</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>7.0840951900191643E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>5.4290460078868702E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -5946,7 +5954,7 @@
         <v>0.13885749352714455</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>7.0840951900191643E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -6046,7 +6054,7 @@
         <v>5.5478349255768708E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>7.0840951900191643E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>5.5478349255768708E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -6196,7 +6204,7 @@
         <v>0.13607042632995781</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -6246,7 +6254,7 @@
         <v>1.3137612079563975E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -6296,7 +6304,7 @@
         <v>7.5704603671652271E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>0.10723043681357111</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>0.14013447421999126</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>0.14013447421999126</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -6496,7 +6504,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -6546,7 +6554,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>0.10447939692635241</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -6646,7 +6654,7 @@
         <v>0.13607042632995781</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>1.3137612079563975E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>5.5478349255768708E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -6796,7 +6804,7 @@
         <v>7.0840951900191643E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -6846,7 +6854,7 @@
         <v>0.10447939692635241</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -6896,7 +6904,7 @@
         <v>7.0987020850156013E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +6954,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -6996,7 +7004,7 @@
         <v>5.4290460078868702E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>1.3137612079563975E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -7096,7 +7104,7 @@
         <v>1.3137612079563975E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -7146,7 +7154,7 @@
         <v>7.0987020850156013E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -7196,7 +7204,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7254,7 @@
         <v>1.3137612079563975E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>7.0840951900191643E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -7346,7 +7354,7 @@
         <v>7.61357402034325E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7404,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -7496,7 +7504,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>5.4290460078868702E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -7596,7 +7604,7 @@
         <v>0.10353282796847249</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -7646,7 +7654,7 @@
         <v>2.5088541722046779E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -7696,7 +7704,7 @@
         <v>7.0840951900191643E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>0.13607042632995781</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -7846,7 +7854,7 @@
         <v>5.612293839594016E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -7896,7 +7904,7 @@
         <v>5.8865539368107228E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -7946,7 +7954,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -8046,7 +8054,7 @@
         <v>0.13147180953016677</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -8096,7 +8104,7 @@
         <v>3.8859338061465716E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -8146,7 +8154,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -8196,7 +8204,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -8246,7 +8254,7 @@
         <v>7.6829886869941549E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -8296,7 +8304,7 @@
         <v>0.16102390445350265</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>6.0498709082340646E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -8446,7 +8454,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -8496,7 +8504,7 @@
         <v>4.1574115712246118E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -8546,7 +8554,7 @@
         <v>9.5414773616231408E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -8596,7 +8604,7 @@
         <v>4.2425641216079418E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -8646,7 +8654,7 @@
         <v>0.11391914046677318</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -8696,7 +8704,7 @@
         <v>0.15736119259952366</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -8746,7 +8754,7 @@
         <v>0.11923287064655647</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -8796,7 +8804,7 @@
         <v>9.516471827553391E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -8846,7 +8854,7 @@
         <v>2.5717287920468242E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -8896,7 +8904,7 @@
         <v>0.16102390445350265</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -8946,7 +8954,7 @@
         <v>9.1740604960613759E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -8996,7 +9004,7 @@
         <v>5.612293839594016E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -9046,7 +9054,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -9096,7 +9104,7 @@
         <v>3.8859338061465716E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -9146,7 +9154,7 @@
         <v>0.10449745171008767</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -9196,7 +9204,7 @@
         <v>4.6889692972674715E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -9246,7 +9254,7 @@
         <v>9.5414773616231408E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -9296,7 +9304,7 @@
         <v>9.5414773616231408E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -9396,7 +9404,7 @@
         <v>5.8865539368107228E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -9446,7 +9454,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -9496,7 +9504,7 @@
         <v>0.13586287343980291</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -9546,7 +9554,7 @@
         <v>0.15736119259952366</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -9596,7 +9604,7 @@
         <v>7.5078225314170771E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -9646,7 +9654,7 @@
         <v>0.15736119259952366</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -9696,7 +9704,7 @@
         <v>0.123744988929677</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -9746,7 +9754,7 @@
         <v>9.5414773616231408E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -9796,7 +9804,7 @@
         <v>0.12220007263203878</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -9846,7 +9854,7 @@
         <v>4.6889692972674715E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -9896,7 +9904,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -9946,7 +9954,7 @@
         <v>5.612293839594016E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>3.4207630227439472E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -10046,7 +10054,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -10096,7 +10104,7 @@
         <v>7.5078225314170771E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10154,7 @@
         <v>7.5078225314170771E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -10196,7 +10204,7 @@
         <v>9.5414773616231408E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -10246,7 +10254,7 @@
         <v>7.6829886869941549E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>5.612293839594016E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -10346,7 +10354,7 @@
         <v>5.612293839594016E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -10396,7 +10404,7 @@
         <v>7.6829886869941549E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -10446,7 +10454,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -10496,7 +10504,7 @@
         <v>0.12220007263203878</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -10546,7 +10554,7 @@
         <v>9.5414773616231408E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -10596,7 +10604,7 @@
         <v>7.5078225314170771E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>0.16904944163373067</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -10746,7 +10754,7 @@
         <v>0.15736119259952366</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -10796,7 +10804,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +10854,7 @@
         <v>0.13912826209656814</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -10896,7 +10904,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -10946,7 +10954,7 @@
         <v>4.6889692972674715E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -10996,7 +11004,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -11046,7 +11054,7 @@
         <v>0.10946719004416534</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -11096,7 +11104,7 @@
         <v>4.6889692972674715E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -11146,7 +11154,7 @@
         <v>0.12220007263203878</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -11196,7 +11204,7 @@
         <v>4.6889692972674715E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -11246,7 +11254,7 @@
         <v>5.612293839594016E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -11296,7 +11304,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -11346,7 +11354,7 @@
         <v>6.7741367506567646E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
@@ -11396,7 +11404,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -11446,7 +11454,7 @@
         <v>0.16102390445350265</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>4.6889692972674715E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -11546,7 +11554,7 @@
         <v>7.5078225314170771E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -11596,7 +11604,7 @@
         <v>2.5860967692445572E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -11646,7 +11654,7 @@
         <v>7.5078225314170771E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -11696,7 +11704,7 @@
         <v>3.5720914966880041E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -11746,7 +11754,7 @@
         <v>0.16102390445350265</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>200</v>
       </c>
@@ -11796,7 +11804,7 @@
         <v>8.8820684523809521E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>200</v>
       </c>
@@ -11846,7 +11854,7 @@
         <v>3.0482700892857137E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>200</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>3.5551525297619048E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>200</v>
       </c>
@@ -11946,7 +11954,7 @@
         <v>4.0643601190476192E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>200</v>
       </c>
@@ -11996,7 +12004,7 @@
         <v>1.5718005952380952E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>200</v>
       </c>
@@ -12046,7 +12054,7 @@
         <v>3.1040736607142853E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>200</v>
       </c>
@@ -12096,7 +12104,7 @@
         <v>7.0149739583333329E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>200</v>
       </c>
@@ -12146,7 +12154,7 @@
         <v>1.6136532738095236E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>200</v>
       </c>
@@ -12196,7 +12204,7 @@
         <v>2.9635078463203464E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>200</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>200</v>
       </c>
@@ -12296,7 +12304,7 @@
         <v>2.2972470238095236E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>200</v>
       </c>
@@ -12346,7 +12354,7 @@
         <v>1.7345610119047616E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>200</v>
       </c>
@@ -12396,7 +12404,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>200</v>
       </c>
@@ -12446,7 +12454,7 @@
         <v>3.9434523809523801E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>200</v>
       </c>
@@ -12496,7 +12504,7 @@
         <v>3.9667038690476192E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>200</v>
       </c>
@@ -12546,7 +12554,7 @@
         <v>5.5547805059523808E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>200</v>
       </c>
@@ -12596,7 +12604,7 @@
         <v>2.7739025297619044E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>200</v>
       </c>
@@ -12646,7 +12654,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>200</v>
       </c>
@@ -12696,7 +12704,7 @@
         <v>1.3777563582251082E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>200</v>
       </c>
@@ -12746,7 +12754,7 @@
         <v>1.3625372023809524E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>200</v>
       </c>
@@ -12796,7 +12804,7 @@
         <v>4.0643601190476192E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>200</v>
       </c>
@@ -12846,7 +12854,7 @@
         <v>1.6927083333333332E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>200</v>
       </c>
@@ -12896,7 +12904,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
@@ -12946,7 +12954,7 @@
         <v>5.5547805059523808E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>200</v>
       </c>
@@ -12996,7 +13004,7 @@
         <v>1.9404423701298697E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>200</v>
       </c>
@@ -13046,7 +13054,7 @@
         <v>2.061350108225108E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>200</v>
       </c>
@@ -13096,7 +13104,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>200</v>
       </c>
@@ -13146,7 +13154,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>200</v>
       </c>
@@ -13196,7 +13204,7 @@
         <v>2.5602002164502161E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
@@ -13246,7 +13254,7 @@
         <v>1.5718005952380952E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>200</v>
       </c>
@@ -13296,7 +13304,7 @@
         <v>5.3806057224025983E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
@@ -13346,7 +13354,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>200</v>
       </c>
@@ -13396,7 +13404,7 @@
         <v>3.4342447916666664E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>200</v>
       </c>
@@ -13446,7 +13454,7 @@
         <v>1.3625372023809524E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -13496,7 +13504,7 @@
         <v>1.4508928571428572E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -13546,7 +13554,7 @@
         <v>5.5547805059523808E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -13596,7 +13604,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -13646,7 +13654,7 @@
         <v>1.8136160714285712E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
@@ -13696,7 +13704,7 @@
         <v>8.7634858630952384E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -13746,7 +13754,7 @@
         <v>5.5547805059523808E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -13796,7 +13804,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -13846,7 +13854,7 @@
         <v>6.884765625E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>200</v>
       </c>
@@ -13896,7 +13904,7 @@
         <v>5.3806057224025983E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>200</v>
       </c>
@@ -13946,7 +13954,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>200</v>
       </c>
@@ -13996,7 +14004,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>200</v>
       </c>
@@ -14046,7 +14054,7 @@
         <v>2.4181547619047616E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>200</v>
       </c>
@@ -14096,7 +14104,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>200</v>
       </c>
@@ -14146,7 +14154,7 @@
         <v>2.9635078463203464E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>200</v>
       </c>
@@ -14196,7 +14204,7 @@
         <v>3.9434523809523801E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>200</v>
       </c>
@@ -14246,7 +14254,7 @@
         <v>4.0643601190476192E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>200</v>
       </c>
@@ -14296,7 +14304,7 @@
         <v>5.5547805059523808E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>200</v>
       </c>
@@ -14346,7 +14354,7 @@
         <v>5.5547805059523808E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>200</v>
       </c>
@@ -14396,7 +14404,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>200</v>
       </c>
@@ -14446,7 +14454,7 @@
         <v>5.6919642857142863E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>200</v>
       </c>
@@ -14496,7 +14504,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>200</v>
       </c>
@@ -14546,7 +14554,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>200</v>
       </c>
@@ -14596,7 +14604,7 @@
         <v>2.7018229166666664E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>200</v>
       </c>
@@ -14646,7 +14654,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>200</v>
       </c>
@@ -14696,7 +14704,7 @@
         <v>2.9635078463203464E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>200</v>
       </c>
@@ -14746,7 +14754,7 @@
         <v>2.6811079545454541E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>200</v>
       </c>
@@ -14796,7 +14804,7 @@
         <v>5.6919642857142863E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>200</v>
       </c>
@@ -14846,7 +14854,7 @@
         <v>2.5602002164502161E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>200</v>
       </c>
@@ -14896,7 +14904,7 @@
         <v>3.6760602678571425E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>200</v>
       </c>
@@ -14946,7 +14954,7 @@
         <v>2.6811079545454541E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>200</v>
       </c>
@@ -14996,7 +15004,7 @@
         <v>1.3777563582251082E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>200</v>
       </c>
@@ -15046,7 +15054,7 @@
         <v>1.9404423701298697E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>200</v>
       </c>
@@ -15096,7 +15104,7 @@
         <v>2.6811079545454541E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>200</v>
       </c>
@@ -15146,7 +15154,7 @@
         <v>7.0149739583333329E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>200</v>
       </c>
@@ -15196,7 +15204,7 @@
         <v>2.6811079545454541E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>200</v>
       </c>
@@ -15246,7 +15254,7 @@
         <v>5.6919642857142863E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>200</v>
       </c>
@@ -15296,7 +15304,7 @@
         <v>5.6919642857142863E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>200</v>
       </c>
@@ -15346,7 +15354,7 @@
         <v>5.6919642857142863E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>200</v>
       </c>
@@ -15396,7 +15404,7 @@
         <v>2.6658887987012984E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>200</v>
       </c>
@@ -15446,7 +15454,7 @@
         <v>5.3806057224025983E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>200</v>
       </c>
@@ -15496,7 +15504,7 @@
         <v>5.6919642857142863E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>200</v>
       </c>
@@ -15546,7 +15554,7 @@
         <v>7.0149739583333329E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>200</v>
       </c>
@@ -15596,7 +15604,7 @@
         <v>1.9404423701298697E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>200</v>
       </c>
@@ -15646,7 +15654,7 @@
         <v>4.0643601190476192E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>200</v>
       </c>
@@ -15696,7 +15704,7 @@
         <v>2.9635078463203464E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>200</v>
       </c>
@@ -15746,7 +15754,7 @@
         <v>1.9404423701298697E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>200</v>
       </c>
@@ -15796,7 +15804,7 @@
         <v>1.097470238095238E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>200</v>
       </c>
@@ -15846,7 +15854,7 @@
         <v>2.297247023809524E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>200</v>
       </c>
@@ -15896,7 +15904,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>200</v>
       </c>
@@ -15946,7 +15954,7 @@
         <v>2.9694264069264072E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>200</v>
       </c>
@@ -15996,7 +16004,7 @@
         <v>2.5449810606060601E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>200</v>
       </c>
@@ -16046,7 +16054,7 @@
         <v>3.1854538690476192E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>200</v>
       </c>
@@ -16096,7 +16104,7 @@
         <v>1.1532738095238094E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>200</v>
       </c>
@@ -16146,7 +16154,7 @@
         <v>3.7331321022727265E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>200</v>
       </c>
@@ -16196,7 +16204,7 @@
         <v>3.0715215773809521E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>200</v>
       </c>
@@ -16246,7 +16254,7 @@
         <v>2.0066034226190473E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>200</v>
       </c>
@@ -16296,7 +16304,7 @@
         <v>2.927362351190476E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>200</v>
       </c>
@@ -16346,7 +16354,7 @@
         <v>1.097470238095238E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>200</v>
       </c>
@@ -16396,7 +16404,7 @@
         <v>6.2954460903679649E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>200</v>
       </c>
@@ -16446,7 +16454,7 @@
         <v>3.1854538690476192E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>200</v>
       </c>
@@ -16496,7 +16504,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>200</v>
       </c>
@@ -16546,7 +16554,7 @@
         <v>2.8622581845238096E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>200</v>
       </c>
@@ -16596,7 +16604,7 @@
         <v>3.2053233225108217E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>200</v>
       </c>
@@ -16646,7 +16654,7 @@
         <v>7.1616697104978366E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>200</v>
       </c>
@@ -16696,7 +16704,7 @@
         <v>3.1854538690476192E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>200</v>
       </c>
@@ -16746,7 +16754,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>200</v>
       </c>
@@ -16796,7 +16804,7 @@
         <v>3.1854538690476192E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>200</v>
       </c>
@@ -16846,7 +16854,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>200</v>
       </c>
@@ -16896,7 +16904,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>200</v>
       </c>
@@ -16946,7 +16954,7 @@
         <v>4.1689918154761904E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>200</v>
       </c>
@@ -16996,7 +17004,7 @@
         <v>7.1684337797619041E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>200</v>
       </c>
@@ -17046,7 +17054,7 @@
         <v>3.7331321022727265E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>200</v>
       </c>
@@ -17096,7 +17104,7 @@
         <v>3.8715841450216448E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>200</v>
       </c>
@@ -17146,7 +17154,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>200</v>
       </c>
@@ -17196,7 +17204,7 @@
         <v>3.1854538690476192E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>200</v>
       </c>
@@ -17246,7 +17254,7 @@
         <v>6.7731584821428575E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>200</v>
       </c>
@@ -17296,7 +17304,7 @@
         <v>2.7438869724025972E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>200</v>
       </c>
@@ -17346,7 +17354,7 @@
         <v>1.6462053571428568E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>200</v>
       </c>
@@ -17396,7 +17404,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>200</v>
       </c>
@@ -17446,7 +17454,7 @@
         <v>7.1684337797619041E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>200</v>
       </c>
@@ -17496,7 +17504,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>200</v>
       </c>
@@ -17546,7 +17554,7 @@
         <v>0.10230654761904762</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>200</v>
       </c>
@@ -17596,7 +17604,7 @@
         <v>6.2954460903679649E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>200</v>
       </c>
@@ -17646,7 +17654,7 @@
         <v>1.1532738095238094E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>200</v>
       </c>
@@ -17696,7 +17704,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>200</v>
       </c>
@@ -17746,7 +17754,7 @@
         <v>6.7731584821428575E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>200</v>
       </c>
@@ -17796,7 +17804,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>200</v>
       </c>
@@ -17846,7 +17854,7 @@
         <v>3.5739650974025969E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>200</v>
       </c>
@@ -17896,7 +17904,7 @@
         <v>3.8715841450216448E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>200</v>
       </c>
@@ -17946,7 +17954,7 @@
         <v>2.6718073593073592E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>200</v>
       </c>
@@ -17996,7 +18004,7 @@
         <v>2.878534226190476E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>200</v>
       </c>
@@ -18046,7 +18054,7 @@
         <v>6.2954460903679649E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>200</v>
       </c>
@@ -18096,7 +18104,7 @@
         <v>3.7331321022727265E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>200</v>
       </c>
@@ -18146,7 +18154,7 @@
         <v>7.0219494047619041E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>200</v>
       </c>
@@ -18196,7 +18204,7 @@
         <v>6.7731584821428575E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>200</v>
       </c>
@@ -18246,7 +18254,7 @@
         <v>9.7958519345238096E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>200</v>
       </c>
@@ -18296,7 +18304,7 @@
         <v>3.1854538690476192E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>200</v>
       </c>
@@ -18396,7 +18404,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>200</v>
       </c>
@@ -18446,7 +18454,7 @@
         <v>6.7731584821428575E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>200</v>
       </c>
@@ -18496,7 +18504,7 @@
         <v>1.4601934523809522E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>200</v>
       </c>
@@ -18546,7 +18554,7 @@
         <v>3.7331321022727265E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>200</v>
       </c>
@@ -18596,7 +18604,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>200</v>
       </c>
@@ -18646,7 +18654,7 @@
         <v>2.9694264069264072E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>200</v>
       </c>
@@ -18696,7 +18704,7 @@
         <v>6.7731584821428575E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>200</v>
       </c>
@@ -18746,7 +18754,7 @@
         <v>2.4961529356060604E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>200</v>
       </c>
@@ -18796,7 +18804,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>200</v>
       </c>
@@ -18846,7 +18854,7 @@
         <v>7.1684337797619041E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>200</v>
       </c>
@@ -18896,7 +18904,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>200</v>
       </c>
@@ -18946,7 +18954,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>200</v>
       </c>
@@ -18996,7 +19004,7 @@
         <v>4.6526227678571432E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>200</v>
       </c>
@@ -19046,7 +19054,7 @@
         <v>3.7331321022727265E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>200</v>
       </c>
@@ -19096,7 +19104,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>200</v>
       </c>
@@ -19146,7 +19154,7 @@
         <v>3.7331321022727265E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>200</v>
       </c>
@@ -19196,7 +19204,7 @@
         <v>6.2954460903679649E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>200</v>
       </c>
@@ -19246,7 +19254,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>200</v>
       </c>
@@ -19296,7 +19304,7 @@
         <v>6.2954460903679649E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>200</v>
       </c>
@@ -19346,7 +19354,7 @@
         <v>6.7731584821428575E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>200</v>
       </c>
@@ -19396,7 +19404,7 @@
         <v>3.048270089285714E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>200</v>
       </c>
@@ -19446,7 +19454,7 @@
         <v>6.2954460903679649E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>200</v>
       </c>
@@ -19496,7 +19504,7 @@
         <v>3.8715841450216448E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>200</v>
       </c>
@@ -19546,7 +19554,7 @@
         <v>7.1616697104978366E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>200</v>
       </c>
@@ -19596,7 +19604,7 @@
         <v>3.8715841450216448E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>200</v>
       </c>
@@ -19646,7 +19654,7 @@
         <v>2.9694264069264072E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>200</v>
       </c>
@@ -19696,7 +19704,7 @@
         <v>2.9694264069264072E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>200</v>
       </c>
@@ -19746,7 +19754,7 @@
         <v>7.1616697104978366E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>361</v>
       </c>
@@ -19796,7 +19804,7 @@
         <v>3.7619047619047614E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>361</v>
       </c>
@@ -19846,7 +19854,7 @@
         <v>3.7619047619047614E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>361</v>
       </c>
@@ -19896,7 +19904,7 @@
         <v>3.7619047619047614E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>361</v>
       </c>
@@ -19946,7 +19954,7 @@
         <v>3.9702380952380947E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>361</v>
       </c>
@@ -19996,7 +20004,7 @@
         <v>5.2380952380952375E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>361</v>
       </c>
@@ -20046,7 +20054,7 @@
         <v>5.5714285714285716E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>361</v>
       </c>
@@ -20096,7 +20104,7 @@
         <v>5.5714285714285716E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>361</v>
       </c>
@@ -20146,7 +20154,7 @@
         <v>5.5714285714285716E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>361</v>
       </c>
@@ -20196,7 +20204,7 @@
         <v>5.5714285714285716E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>361</v>
       </c>
@@ -20246,7 +20254,7 @@
         <v>5.5714285714285716E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>361</v>
       </c>
@@ -20296,7 +20304,7 @@
         <v>5.5714285714285716E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -20346,7 +20354,7 @@
         <v>5.6428571428571425E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -20396,7 +20404,7 @@
         <v>5.7142857142857134E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>361</v>
       </c>
@@ -20446,7 +20454,7 @@
         <v>5.8095238095238103E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>361</v>
       </c>
@@ -20496,7 +20504,7 @@
         <v>5.8095238095238103E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>361</v>
       </c>
@@ -20546,7 +20554,7 @@
         <v>6.0476190476190475E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>361</v>
       </c>
@@ -20596,7 +20604,7 @@
         <v>6.0476190476190475E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>361</v>
       </c>
@@ -20646,7 +20654,7 @@
         <v>6.0476190476190475E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>361</v>
       </c>
@@ -20696,7 +20704,7 @@
         <v>6.2142857142857139E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>361</v>
       </c>
@@ -20746,7 +20754,7 @@
         <v>6.2142857142857139E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>361</v>
       </c>
@@ -20796,7 +20804,7 @@
         <v>6.2142857142857139E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>361</v>
       </c>
@@ -20846,7 +20854,7 @@
         <v>6.2142857142857139E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>361</v>
       </c>
@@ -20896,7 +20904,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>361</v>
       </c>
@@ -20946,7 +20954,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>361</v>
       </c>
@@ -20996,7 +21004,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>361</v>
       </c>
@@ -21046,7 +21054,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>361</v>
       </c>
@@ -21096,7 +21104,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>361</v>
       </c>
@@ -21146,7 +21154,7 @@
         <v>6.3809523809523816E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>361</v>
       </c>
@@ -21196,7 +21204,7 @@
         <v>6.4226190476190478E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>361</v>
       </c>
@@ -21246,7 +21254,7 @@
         <v>6.4226190476190478E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
@@ -21296,7 +21304,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>361</v>
       </c>
@@ -21346,7 +21354,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>361</v>
       </c>
@@ -21396,7 +21404,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>361</v>
       </c>
@@ -21446,7 +21454,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>361</v>
       </c>
@@ -21496,7 +21504,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>361</v>
       </c>
@@ -21546,7 +21554,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>361</v>
       </c>
@@ -21596,7 +21604,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
@@ -21646,7 +21654,7 @@
         <v>6.4523809523809525E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
@@ -21696,7 +21704,7 @@
         <v>7.3571428571428579E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>361</v>
       </c>
@@ -21746,7 +21754,7 @@
         <v>7.5654761904761905E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
@@ -21796,7 +21804,7 @@
         <v>7.5654761904761905E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -21846,7 +21854,7 @@
         <v>7.5952380952380952E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>361</v>
       </c>
@@ -21896,7 +21904,7 @@
         <v>7.5952380952380966E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>361</v>
       </c>
@@ -21946,7 +21954,7 @@
         <v>7.5952380952380966E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>361</v>
       </c>
@@ -21996,7 +22004,7 @@
         <v>7.5952380952380966E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>361</v>
       </c>
@@ -22046,7 +22054,7 @@
         <v>7.7619047619047615E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>361</v>
       </c>
@@ -22096,7 +22104,7 @@
         <v>8.0416666666666664E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>361</v>
       </c>
@@ -22146,7 +22154,7 @@
         <v>8.4047619047619065E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>361</v>
       </c>
@@ -22196,7 +22204,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>361</v>
       </c>
@@ -22246,7 +22254,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>361</v>
       </c>
@@ -22296,7 +22304,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>361</v>
       </c>
@@ -22346,7 +22354,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>361</v>
       </c>
@@ -22396,7 +22404,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>361</v>
       </c>
@@ -22446,7 +22454,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>361</v>
       </c>
@@ -22496,7 +22504,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>361</v>
       </c>
@@ -22546,7 +22554,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>361</v>
       </c>
@@ -22596,7 +22604,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>361</v>
       </c>
@@ -22646,7 +22654,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>361</v>
       </c>
@@ -22696,7 +22704,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>361</v>
       </c>
@@ -22746,7 +22754,7 @@
         <v>8.8095238095238088E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>361</v>
       </c>
@@ -22796,7 +22804,7 @@
         <v>8.8095238095238101E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>361</v>
       </c>
@@ -22846,7 +22854,7 @@
         <v>8.8095238095238101E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>361</v>
       </c>
@@ -22896,7 +22904,7 @@
         <v>8.8095238095238115E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>361</v>
       </c>
@@ -22946,7 +22954,7 @@
         <v>8.8095238095238115E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>361</v>
       </c>
@@ -22996,7 +23004,7 @@
         <v>9.3809523809523801E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>361</v>
       </c>
@@ -23046,7 +23054,7 @@
         <v>9.6428571428571419E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>361</v>
       </c>
@@ -23096,7 +23104,7 @@
         <v>9.6428571428571419E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>361</v>
       </c>
@@ -23146,7 +23154,7 @@
         <v>9.6428571428571419E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>361</v>
       </c>
@@ -23196,7 +23204,7 @@
         <v>9.6428571428571419E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>361</v>
       </c>
@@ -23246,7 +23254,7 @@
         <v>9.6428571428571419E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>361</v>
       </c>
@@ -23296,7 +23304,7 @@
         <v>9.6428571428571419E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>361</v>
       </c>
@@ -23346,7 +23354,7 @@
         <v>9.8809523809523805E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>361</v>
       </c>
@@ -23396,7 +23404,7 @@
         <v>0.10047619047619047</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>361</v>
       </c>
@@ -23446,7 +23454,7 @@
         <v>0.10047619047619047</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>361</v>
       </c>
@@ -23496,7 +23504,7 @@
         <v>0.10047619047619047</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>361</v>
       </c>
@@ -23546,7 +23554,7 @@
         <v>0.10047619047619047</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>361</v>
       </c>
@@ -23596,7 +23604,7 @@
         <v>0.10047619047619047</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>361</v>
       </c>
@@ -23646,7 +23654,7 @@
         <v>0.10047619047619047</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>361</v>
       </c>
@@ -23696,7 +23704,7 @@
         <v>0.1126190476190476</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>361</v>
       </c>
@@ -23746,7 +23754,7 @@
         <v>0.1126190476190476</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>361</v>
       </c>
@@ -23796,7 +23804,7 @@
         <v>0.13619047619047617</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>361</v>
       </c>
@@ -23846,7 +23854,7 @@
         <v>0.13785714285714284</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>361</v>
       </c>
@@ -23896,7 +23904,7 @@
         <v>0.13785714285714284</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>361</v>
       </c>
@@ -23946,7 +23954,7 @@
         <v>0.14761904761904759</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>361</v>
       </c>
@@ -23996,7 +24004,7 @@
         <v>0.14761904761904759</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>361</v>
       </c>
@@ -24046,7 +24054,7 @@
         <v>0.15738095238095237</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>361</v>
       </c>
@@ -24096,7 +24104,7 @@
         <v>0.15738095238095237</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>361</v>
       </c>
@@ -24146,7 +24154,7 @@
         <v>0.15738095238095237</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>361</v>
       </c>
@@ -24196,7 +24204,7 @@
         <v>0.1876190476190476</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>361</v>
       </c>
@@ -24246,7 +24254,7 @@
         <v>0.1908333333333333</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>361</v>
       </c>
@@ -24296,7 +24304,7 @@
         <v>0.19404761904761902</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>361</v>
       </c>
@@ -24346,7 +24354,7 @@
         <v>0.1989285714285714</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>361</v>
       </c>
@@ -24396,7 +24404,7 @@
         <v>0.2063095238095238</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>361</v>
       </c>
@@ -24446,7 +24454,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>361</v>
       </c>
@@ -24496,7 +24504,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>361</v>
       </c>
@@ -24546,7 +24554,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>361</v>
       </c>
@@ -24596,7 +24604,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>361</v>
       </c>
@@ -24646,7 +24654,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>361</v>
       </c>
@@ -24696,7 +24704,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>361</v>
       </c>
@@ -24746,7 +24754,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>361</v>
       </c>
@@ -24796,7 +24804,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>361</v>
       </c>
@@ -24846,7 +24854,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>361</v>
       </c>
@@ -24896,7 +24904,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>361</v>
       </c>
@@ -24946,7 +24954,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>361</v>
       </c>
@@ -24996,7 +25004,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>361</v>
       </c>
@@ -25046,7 +25054,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>361</v>
       </c>
@@ -25096,7 +25104,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>361</v>
       </c>
@@ -25146,7 +25154,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>361</v>
       </c>
@@ -25196,7 +25204,7 @@
         <v>0.21005952380952381</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>361</v>
       </c>
@@ -25246,7 +25254,7 @@
         <v>0.21744047619047618</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>361</v>
       </c>
@@ -25296,7 +25304,7 @@
         <v>0.24238095238095236</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>361</v>
       </c>
@@ -25346,7 +25354,7 @@
         <v>0.25547619047619052</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>361</v>
       </c>
@@ -25396,7 +25404,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>361</v>
       </c>
@@ -25446,7 +25454,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>361</v>
       </c>
@@ -25496,7 +25504,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>361</v>
       </c>
@@ -25546,7 +25554,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>361</v>
       </c>
@@ -25596,7 +25604,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>361</v>
       </c>
@@ -25646,7 +25654,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>361</v>
       </c>
@@ -25696,7 +25704,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>361</v>
       </c>
@@ -25746,7 +25754,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>361</v>
       </c>
@@ -25846,7 +25854,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>361</v>
       </c>
@@ -25896,7 +25904,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>361</v>
       </c>
@@ -25946,7 +25954,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>361</v>
       </c>
@@ -25996,7 +26004,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>361</v>
       </c>
@@ -26046,7 +26054,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>361</v>
       </c>
@@ -26096,7 +26104,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>361</v>
       </c>
@@ -26146,7 +26154,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>361</v>
       </c>
@@ -26196,7 +26204,7 @@
         <v>0.42029761904761914</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>361</v>
       </c>
@@ -26246,7 +26254,7 @@
         <v>0.42434523809523816</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>361</v>
       </c>
@@ -26296,7 +26304,7 @@
         <v>0.43815476190476199</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>361</v>
       </c>
@@ -26346,7 +26354,7 @@
         <v>0.44625000000000009</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>361</v>
       </c>
@@ -26396,7 +26404,7 @@
         <v>0.45029761904761911</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>361</v>
       </c>
@@ -26446,7 +26454,7 @@
         <v>0.46005952380952386</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>361</v>
       </c>
@@ -26496,7 +26504,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>361</v>
       </c>
@@ -26546,7 +26554,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>361</v>
       </c>
@@ -26596,7 +26604,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>361</v>
       </c>
@@ -26646,7 +26654,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>361</v>
       </c>
@@ -26696,7 +26704,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>361</v>
       </c>
@@ -26746,7 +26754,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>361</v>
       </c>
@@ -26796,7 +26804,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>361</v>
       </c>
@@ -26846,7 +26854,7 @@
         <v>0.46982142857142861</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>361</v>
       </c>
@@ -26896,7 +26904,7 @@
         <v>0.54958333333333331</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>361</v>
       </c>
@@ -26946,7 +26954,7 @@
         <v>0.55196428571428569</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>361</v>
       </c>
@@ -26996,7 +27004,7 @@
         <v>0.56172619047619032</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>361</v>
       </c>
@@ -27046,7 +27054,7 @@
         <v>0.56172619047619032</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>361</v>
       </c>
@@ -27096,7 +27104,7 @@
         <v>0.59065476190476174</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>361</v>
       </c>
@@ -27146,7 +27154,7 @@
         <v>0.59273809523809518</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>361</v>
       </c>
@@ -27196,7 +27204,7 @@
         <v>0.59470238095238082</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>361</v>
       </c>
@@ -27246,7 +27254,7 @@
         <v>0.59470238095238082</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>361</v>
       </c>
@@ -27296,7 +27304,7 @@
         <v>0.59636904761904752</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>361</v>
       </c>
@@ -27346,7 +27354,7 @@
         <v>0.59845238095238096</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>361</v>
       </c>
@@ -27396,7 +27404,7 @@
         <v>0.60446428571428568</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>361</v>
       </c>
@@ -27446,7 +27454,7 @@
         <v>0.60446428571428568</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>361</v>
       </c>
@@ -27496,7 +27504,7 @@
         <v>0.60446428571428568</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>361</v>
       </c>
@@ -27546,7 +27554,7 @@
         <v>0.60446428571428568</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>361</v>
       </c>
@@ -27596,7 +27604,7 @@
         <v>0.60988095238095241</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>361</v>
       </c>
@@ -27646,7 +27654,7 @@
         <v>0.60988095238095241</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>361</v>
       </c>
@@ -27696,7 +27704,7 @@
         <v>0.60988095238095241</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>361</v>
       </c>
@@ -27746,7 +27754,7 @@
         <v>0.60988095238095241</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>523</v>
       </c>
@@ -27796,7 +27804,7 @@
         <v>0.25883838383838387</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>523</v>
       </c>
@@ -27846,7 +27854,7 @@
         <v>8.6489898989898978E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>523</v>
       </c>
@@ -27896,7 +27904,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>523</v>
       </c>
@@ -27946,7 +27954,7 @@
         <v>0.17061237373737373</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>523</v>
       </c>
@@ -27996,7 +28004,7 @@
         <v>0.13320707070707072</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>523</v>
       </c>
@@ -28046,7 +28054,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>523</v>
       </c>
@@ -28096,7 +28104,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>523</v>
       </c>
@@ -28146,7 +28154,7 @@
         <v>0.24952651515151514</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>523</v>
       </c>
@@ -28196,7 +28204,7 @@
         <v>0.21890782828282829</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>523</v>
       </c>
@@ -28246,7 +28254,7 @@
         <v>0.13320707070707072</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>523</v>
       </c>
@@ -28296,7 +28304,7 @@
         <v>0.19476010101010099</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>523</v>
       </c>
@@ -28346,7 +28354,7 @@
         <v>0.1545138888888889</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>523</v>
       </c>
@@ -28396,7 +28404,7 @@
         <v>0.10779671717171715</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>523</v>
       </c>
@@ -28446,7 +28454,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>523</v>
       </c>
@@ -28496,7 +28504,7 @@
         <v>0.13857323232323232</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>523</v>
       </c>
@@ -28546,7 +28554,7 @@
         <v>0.17329545454545453</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>523</v>
       </c>
@@ -28596,7 +28604,7 @@
         <v>0.19207702020202022</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>523</v>
       </c>
@@ -28646,7 +28654,7 @@
         <v>0.19207702020202022</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>523</v>
       </c>
@@ -28696,7 +28704,7 @@
         <v>0.20691287878787878</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>523</v>
       </c>
@@ -28746,7 +28754,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>523</v>
       </c>
@@ -28796,7 +28804,7 @@
         <v>0.17739898989898989</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>523</v>
       </c>
@@ -28846,7 +28854,7 @@
         <v>0.10006313131313131</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>523</v>
       </c>
@@ -28896,7 +28904,7 @@
         <v>0.1598800505050505</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>523</v>
       </c>
@@ -28946,7 +28954,7 @@
         <v>0.10779671717171715</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>523</v>
       </c>
@@ -28996,7 +29004,7 @@
         <v>0.1545138888888889</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>523</v>
       </c>
@@ -29046,7 +29054,7 @@
         <v>0.1598800505050505</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>523</v>
       </c>
@@ -29096,7 +29104,7 @@
         <v>0.19476010101010099</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>523</v>
       </c>
@@ -29146,7 +29154,7 @@
         <v>0.14930555555555558</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>523</v>
       </c>
@@ -29196,7 +29204,7 @@
         <v>0.13857323232323232</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>523</v>
       </c>
@@ -29246,7 +29254,7 @@
         <v>0.18939393939393939</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>523</v>
       </c>
@@ -29296,7 +29304,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>523</v>
       </c>
@@ -29346,7 +29354,7 @@
         <v>0.16398358585858586</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>523</v>
       </c>
@@ -29396,7 +29404,7 @@
         <v>0.20691287878787878</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>523</v>
       </c>
@@ -29446,7 +29454,7 @@
         <v>0.15056818181818182</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>523</v>
       </c>
@@ -29496,7 +29504,7 @@
         <v>0.15056818181818182</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>523</v>
       </c>
@@ -29546,7 +29554,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>523</v>
       </c>
@@ -29596,7 +29604,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>523</v>
       </c>
@@ -29646,7 +29654,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>523</v>
       </c>
@@ -29696,7 +29704,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>523</v>
       </c>
@@ -29746,7 +29754,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>523</v>
       </c>
@@ -29796,7 +29804,7 @@
         <v>0.13857323232323232</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>523</v>
       </c>
@@ -29846,7 +29854,7 @@
         <v>0.1598800505050505</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>523</v>
       </c>
@@ -29896,7 +29904,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>523</v>
       </c>
@@ -29946,7 +29954,7 @@
         <v>0.16398358585858586</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>523</v>
       </c>
@@ -29996,7 +30004,7 @@
         <v>0.15056818181818182</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>523</v>
       </c>
@@ -30046,7 +30054,7 @@
         <v>0.19476010101010099</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>523</v>
       </c>
@@ -30096,7 +30104,7 @@
         <v>0.19207702020202022</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>523</v>
       </c>
@@ -30146,7 +30154,7 @@
         <v>0.10243055555555555</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>523</v>
       </c>
@@ -30196,7 +30204,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>523</v>
       </c>
@@ -30246,7 +30254,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>523</v>
       </c>
@@ -30296,7 +30304,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>523</v>
       </c>
@@ -30346,7 +30354,7 @@
         <v>0.13857323232323232</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>523</v>
       </c>
@@ -30396,7 +30404,7 @@
         <v>0.15056818181818182</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>523</v>
       </c>
@@ -30446,7 +30454,7 @@
         <v>0.20691287878787878</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>523</v>
       </c>
@@ -30496,7 +30504,7 @@
         <v>0.1598800505050505</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>523</v>
       </c>
@@ -30546,7 +30554,7 @@
         <v>0.15056818181818182</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>523</v>
       </c>
@@ -30596,7 +30604,7 @@
         <v>0.14930555555555558</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>523</v>
       </c>
@@ -30646,7 +30654,7 @@
         <v>0.10006313131313131</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>523</v>
       </c>
@@ -30696,7 +30704,7 @@
         <v>0.1598800505050505</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>523</v>
       </c>
@@ -30746,7 +30754,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>523</v>
       </c>
@@ -30796,7 +30804,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>523</v>
       </c>
@@ -30846,7 +30854,7 @@
         <v>0.19476010101010099</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>523</v>
       </c>
@@ -30896,7 +30904,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>523</v>
       </c>
@@ -30946,7 +30954,7 @@
         <v>0.1598800505050505</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>523</v>
       </c>
@@ -30996,7 +31004,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>523</v>
       </c>
@@ -31046,7 +31054,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>523</v>
       </c>
@@ -31096,7 +31104,7 @@
         <v>0.13857323232323232</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>523</v>
       </c>
@@ -31146,7 +31154,7 @@
         <v>0.13857323232323232</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>523</v>
       </c>
@@ -31196,7 +31204,7 @@
         <v>0.19476010101010099</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>523</v>
       </c>
@@ -31246,7 +31254,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>523</v>
       </c>
@@ -31296,7 +31304,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>523</v>
       </c>
@@ -31346,7 +31354,7 @@
         <v>0.23090277777777779</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>523</v>
       </c>
@@ -31396,7 +31404,7 @@
         <v>0.15056818181818182</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>523</v>
       </c>
@@ -31446,7 +31454,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>523</v>
       </c>
@@ -31496,7 +31504,7 @@
         <v>0.20691287878787878</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>523</v>
       </c>
@@ -31546,7 +31554,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>523</v>
       </c>
@@ -31596,7 +31604,7 @@
         <v>0.20691287878787878</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>523</v>
       </c>
@@ -31646,7 +31654,7 @@
         <v>0.20691287878787878</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>523</v>
       </c>
@@ -31696,7 +31704,7 @@
         <v>0.17203282828282829</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>523</v>
       </c>
@@ -31746,7 +31754,7 @@
         <v>0.27493686868686867</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>523</v>
       </c>
@@ -31796,7 +31804,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>523</v>
       </c>
@@ -31846,7 +31854,7 @@
         <v>0.20407196969696967</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>523</v>
       </c>
@@ -31896,7 +31904,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>523</v>
       </c>
@@ -31946,7 +31954,7 @@
         <v>0.33112373737373735</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>523</v>
       </c>
@@ -31996,7 +32004,7 @@
         <v>0.16130050505050506</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>523</v>
       </c>
@@ -32046,7 +32054,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>523</v>
       </c>
@@ -32096,7 +32104,7 @@
         <v>0.16130050505050506</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>523</v>
       </c>
@@ -32146,7 +32154,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>523</v>
       </c>
@@ -32196,7 +32204,7 @@
         <v>0.2001262626262626</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>523</v>
       </c>
@@ -32246,7 +32254,7 @@
         <v>0.17597853535353536</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>523</v>
       </c>
@@ -32296,7 +32304,7 @@
         <v>0.18008207070707072</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>523</v>
       </c>
@@ -32346,7 +32354,7 @@
         <v>0.22821969696969696</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>523</v>
       </c>
@@ -32396,7 +32404,7 @@
         <v>0.20012626262626262</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>523</v>
       </c>
@@ -32446,7 +32454,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>523</v>
       </c>
@@ -32496,7 +32504,7 @@
         <v>0.32844065656565657</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>523</v>
       </c>
@@ -32546,7 +32554,7 @@
         <v>0.18008207070707072</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>523</v>
       </c>
@@ -32596,7 +32604,7 @@
         <v>0.16398358585858586</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>523</v>
       </c>
@@ -32646,7 +32654,7 @@
         <v>0.30571338383838387</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>523</v>
       </c>
@@ -32696,7 +32704,7 @@
         <v>0.23484848484848486</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>523</v>
       </c>
@@ -32746,7 +32754,7 @@
         <v>0.17329545454545453</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>523</v>
       </c>
@@ -32796,7 +32804,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>523</v>
       </c>
@@ -32846,7 +32854,7 @@
         <v>0.17597853535353536</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>523</v>
       </c>
@@ -32896,7 +32904,7 @@
         <v>0.16130050505050506</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>523</v>
       </c>
@@ -32946,7 +32954,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>523</v>
       </c>
@@ -32996,7 +33004,7 @@
         <v>0.20407196969696967</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>523</v>
       </c>
@@ -33046,7 +33054,7 @@
         <v>0.23216540404040406</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>523</v>
       </c>
@@ -33096,7 +33104,7 @@
         <v>0.23216540404040406</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>523</v>
       </c>
@@ -33146,7 +33154,7 @@
         <v>0.16130050505050506</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>523</v>
       </c>
@@ -33196,7 +33204,7 @@
         <v>0.23484848484848486</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>523</v>
       </c>
@@ -33246,7 +33254,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>523</v>
       </c>
@@ -33296,7 +33304,7 @@
         <v>0.17329545454545453</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>523</v>
       </c>
@@ -33346,7 +33354,7 @@
         <v>0.11852904040404041</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>523</v>
       </c>
@@ -33396,7 +33404,7 @@
         <v>0.11852904040404041</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>523</v>
       </c>
@@ -33446,7 +33454,7 @@
         <v>0.11852904040404041</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>523</v>
       </c>
@@ -33496,7 +33504,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>523</v>
       </c>
@@ -33596,7 +33604,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>523</v>
       </c>
@@ -33646,7 +33654,7 @@
         <v>0.11852904040404041</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>523</v>
       </c>
@@ -33696,7 +33704,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>523</v>
       </c>
@@ -33746,7 +33754,7 @@
         <v>0.16398358585858586</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>523</v>
       </c>
@@ -33796,7 +33804,7 @@
         <v>0.18686868686868688</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>523</v>
       </c>
@@ -33846,7 +33854,7 @@
         <v>0.2001262626262626</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>523</v>
       </c>
@@ -33896,7 +33904,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>523</v>
       </c>
@@ -33946,7 +33954,7 @@
         <v>0.20407196969696967</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>523</v>
       </c>
@@ -33996,7 +34004,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>523</v>
       </c>
@@ -34046,7 +34054,7 @@
         <v>0.23484848484848486</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>523</v>
       </c>
@@ -34096,7 +34104,7 @@
         <v>0.18686868686868688</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>523</v>
       </c>
@@ -34146,7 +34154,7 @@
         <v>0.11852904040404041</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>523</v>
       </c>
@@ -34196,7 +34204,7 @@
         <v>0.20407196969696967</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>523</v>
       </c>
@@ -34246,7 +34254,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>523</v>
       </c>
@@ -34296,7 +34304,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>523</v>
       </c>
@@ -34346,7 +34354,7 @@
         <v>0.16398358585858586</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>523</v>
       </c>
@@ -34396,7 +34404,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>523</v>
       </c>
@@ -34446,7 +34454,7 @@
         <v>0.16130050505050506</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>523</v>
       </c>
@@ -34496,7 +34504,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>523</v>
       </c>
@@ -34546,7 +34554,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>523</v>
       </c>
@@ -34596,7 +34604,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>523</v>
       </c>
@@ -34646,7 +34654,7 @@
         <v>0.23484848484848486</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>523</v>
       </c>
@@ -34696,7 +34704,7 @@
         <v>0.11852904040404041</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>523</v>
       </c>
@@ -34746,7 +34754,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>523</v>
       </c>
@@ -34796,7 +34804,7 @@
         <v>0.14125631313131315</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>523</v>
       </c>
@@ -34846,7 +34854,7 @@
         <v>0.23484848484848486</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>523</v>
       </c>
@@ -34896,7 +34904,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>523</v>
       </c>
@@ -34946,7 +34954,7 @@
         <v>0.12926136363636365</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>523</v>
       </c>
@@ -34996,7 +35004,7 @@
         <v>0.11442550505050504</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>523</v>
       </c>
@@ -35046,7 +35054,7 @@
         <v>0.18686868686868688</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>523</v>
       </c>
@@ -35096,7 +35104,7 @@
         <v>0.2001262626262626</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>523</v>
       </c>
@@ -35146,7 +35154,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>523</v>
       </c>
@@ -35196,7 +35204,7 @@
         <v>0.18686868686868688</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>523</v>
       </c>
@@ -35246,7 +35254,7 @@
         <v>0.11316287878787878</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>523</v>
       </c>
@@ -35296,7 +35304,7 @@
         <v>0.18686868686868688</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>523</v>
       </c>
@@ -35346,7 +35354,7 @@
         <v>0.2001262626262626</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>523</v>
       </c>
@@ -35396,7 +35404,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>523</v>
       </c>
@@ -35446,7 +35454,7 @@
         <v>0.20407196969696967</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>523</v>
       </c>
@@ -35496,7 +35504,7 @@
         <v>0.23484848484848486</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>523</v>
       </c>
@@ -35546,7 +35554,7 @@
         <v>0.16398358585858586</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>523</v>
       </c>
@@ -35596,7 +35604,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>523</v>
       </c>
@@ -35646,7 +35654,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>523</v>
       </c>
@@ -35696,7 +35704,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>523</v>
       </c>
@@ -35746,7 +35754,7 @@
         <v>0.18686868686868688</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>684</v>
       </c>
@@ -35796,7 +35804,7 @@
         <v>0.29146666666666643</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>684</v>
       </c>
@@ -35846,7 +35854,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>684</v>
       </c>
@@ -35896,7 +35904,7 @@
         <v>3.7666666666666682E-2</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>684</v>
       </c>
@@ -35946,7 +35954,7 @@
         <v>3.3733333333333351E-2</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>684</v>
       </c>
@@ -35996,7 +36004,7 @@
         <v>1.3933333333333332E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>684</v>
       </c>
@@ -36046,7 +36054,7 @@
         <v>0.21026666666666655</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>684</v>
       </c>
@@ -36096,7 +36104,7 @@
         <v>3.8200000000000019E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>684</v>
       </c>
@@ -36146,7 +36154,7 @@
         <v>3.746666666666669E-2</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>684</v>
       </c>
@@ -36196,7 +36204,7 @@
         <v>1.3933333333333332E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>684</v>
       </c>
@@ -36246,7 +36254,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>684</v>
       </c>
@@ -36296,7 +36304,7 @@
         <v>2.7666666666666676E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>684</v>
       </c>
@@ -36346,7 +36354,7 @@
         <v>2.7866666666666675E-2</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>684</v>
       </c>
@@ -36396,7 +36404,7 @@
         <v>1.6533333333333334E-2</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>684</v>
       </c>
@@ -36446,7 +36454,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>684</v>
       </c>
@@ -36496,7 +36504,7 @@
         <v>0.24259999999999982</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>684</v>
       </c>
@@ -36546,7 +36554,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>684</v>
       </c>
@@ -36596,7 +36604,7 @@
         <v>0.16379999999999995</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>684</v>
       </c>
@@ -36646,7 +36654,7 @@
         <v>0.18859999999999988</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>684</v>
       </c>
@@ -36696,7 +36704,7 @@
         <v>1.2866666666666667E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>684</v>
       </c>
@@ -36746,7 +36754,7 @@
         <v>7.12666666666667E-2</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>684</v>
       </c>
@@ -36796,7 +36804,7 @@
         <v>1.6533333333333334E-2</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>684</v>
       </c>
@@ -36846,7 +36854,7 @@
         <v>3.280000000000001E-2</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>684</v>
       </c>
@@ -36896,7 +36904,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>684</v>
       </c>
@@ -36946,7 +36954,7 @@
         <v>3.8466666666666691E-2</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>684</v>
       </c>
@@ -36996,7 +37004,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>684</v>
       </c>
@@ -37046,7 +37054,7 @@
         <v>0.16786666666666661</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>684</v>
       </c>
@@ -37096,7 +37104,7 @@
         <v>3.226666666666668E-2</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>684</v>
       </c>
@@ -37146,7 +37154,7 @@
         <v>0.18279999999999988</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>684</v>
       </c>
@@ -37196,7 +37204,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>684</v>
       </c>
@@ -37246,7 +37254,7 @@
         <v>4.2333333333333362E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>684</v>
       </c>
@@ -37296,7 +37304,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>684</v>
       </c>
@@ -37346,7 +37354,7 @@
         <v>1.5733333333333335E-2</v>
       </c>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>684</v>
       </c>
@@ -37396,7 +37404,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>684</v>
       </c>
@@ -37446,7 +37454,7 @@
         <v>0.29586666666666639</v>
       </c>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>684</v>
       </c>
@@ -37496,7 +37504,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>684</v>
       </c>
@@ -37546,7 +37554,7 @@
         <v>3.6066666666666684E-2</v>
       </c>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>684</v>
       </c>
@@ -37596,7 +37604,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>684</v>
       </c>
@@ -37646,7 +37654,7 @@
         <v>0.21686666666666654</v>
       </c>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>684</v>
       </c>
@@ -37696,7 +37704,7 @@
         <v>6.9466666666666704E-2</v>
       </c>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>684</v>
       </c>
@@ -37746,7 +37754,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>684</v>
       </c>
@@ -37796,7 +37804,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>684</v>
       </c>
@@ -37846,7 +37854,7 @@
         <v>3.226666666666668E-2</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>684</v>
       </c>
@@ -37896,7 +37904,7 @@
         <v>3.2600000000000011E-2</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>684</v>
       </c>
@@ -37946,7 +37954,7 @@
         <v>0.24913333333333315</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>684</v>
       </c>
@@ -37996,7 +38004,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>684</v>
       </c>
@@ -38046,7 +38054,7 @@
         <v>5.1133333333333357E-2</v>
       </c>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>684</v>
       </c>
@@ -38096,7 +38104,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>684</v>
       </c>
@@ -38146,7 +38154,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>684</v>
       </c>
@@ -38196,7 +38204,7 @@
         <v>0.1178</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>684</v>
       </c>
@@ -38246,7 +38254,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>684</v>
       </c>
@@ -38296,7 +38304,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>684</v>
       </c>
@@ -38346,7 +38354,7 @@
         <v>7.0933333333333376E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>684</v>
       </c>
@@ -38396,7 +38404,7 @@
         <v>8.5733333333333356E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>684</v>
       </c>
@@ -38446,7 +38454,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>684</v>
       </c>
@@ -38496,7 +38504,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>684</v>
       </c>
@@ -38546,7 +38554,7 @@
         <v>3.226666666666668E-2</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>684</v>
       </c>
@@ -38596,7 +38604,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>684</v>
       </c>
@@ -38646,7 +38654,7 @@
         <v>8.5733333333333356E-2</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>684</v>
       </c>
@@ -38696,7 +38704,7 @@
         <v>3.2600000000000011E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>684</v>
       </c>
@@ -38746,7 +38754,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>684</v>
       </c>
@@ -38796,7 +38804,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>684</v>
       </c>
@@ -38846,7 +38854,7 @@
         <v>3.280000000000001E-2</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>684</v>
       </c>
@@ -38896,7 +38904,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>684</v>
       </c>
@@ -38946,7 +38954,7 @@
         <v>8.553333333333335E-2</v>
       </c>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>684</v>
       </c>
@@ -38996,7 +39004,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>684</v>
       </c>
@@ -39046,7 +39054,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>684</v>
       </c>
@@ -39096,7 +39104,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>684</v>
       </c>
@@ -39146,7 +39154,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>684</v>
       </c>
@@ -39196,7 +39204,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>684</v>
       </c>
@@ -39246,7 +39254,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>684</v>
       </c>
@@ -39296,7 +39304,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>684</v>
       </c>
@@ -39346,7 +39354,7 @@
         <v>3.2600000000000011E-2</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>684</v>
       </c>
@@ -39396,7 +39404,7 @@
         <v>0.21686666666666654</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>684</v>
       </c>
@@ -39446,7 +39454,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>684</v>
       </c>
@@ -39496,7 +39504,7 @@
         <v>0.29133333333333311</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>684</v>
       </c>
@@ -39546,7 +39554,7 @@
         <v>3.280000000000001E-2</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>684</v>
       </c>
@@ -39596,7 +39604,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>684</v>
       </c>
@@ -39646,7 +39654,7 @@
         <v>3.2600000000000011E-2</v>
       </c>
     </row>
-    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>684</v>
       </c>
@@ -39696,7 +39704,7 @@
         <v>3.2600000000000011E-2</v>
       </c>
     </row>
-    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>684</v>
       </c>
@@ -39746,7 +39754,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>684</v>
       </c>
@@ -39796,7 +39804,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>684</v>
       </c>
@@ -39846,7 +39854,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>684</v>
       </c>
@@ -39896,7 +39904,7 @@
         <v>3.2600000000000011E-2</v>
       </c>
     </row>
-    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>684</v>
       </c>
@@ -39946,7 +39954,7 @@
         <v>5.3933333333333361E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>684</v>
       </c>
@@ -39996,7 +40004,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>684</v>
       </c>
@@ -40046,7 +40054,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>684</v>
       </c>
@@ -40096,7 +40104,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>684</v>
       </c>
@@ -40146,7 +40154,7 @@
         <v>0.11806666666666664</v>
       </c>
     </row>
-    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>684</v>
       </c>
@@ -40196,7 +40204,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>684</v>
       </c>
@@ -40246,7 +40254,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>684</v>
       </c>
@@ -40296,7 +40304,7 @@
         <v>0.33799999999999958</v>
       </c>
     </row>
-    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>684</v>
       </c>
@@ -40346,7 +40354,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="734" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>684</v>
       </c>
@@ -40396,7 +40404,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="735" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>684</v>
       </c>
@@ -40446,7 +40454,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="736" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>684</v>
       </c>
@@ -40496,7 +40504,7 @@
         <v>0.19613333333333319</v>
       </c>
     </row>
-    <row r="737" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>684</v>
       </c>
@@ -40546,7 +40554,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="738" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>684</v>
       </c>
@@ -40596,7 +40604,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="739" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>684</v>
       </c>
@@ -40646,7 +40654,7 @@
         <v>0.21686666666666654</v>
       </c>
     </row>
-    <row r="740" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>684</v>
       </c>
@@ -40696,7 +40704,7 @@
         <v>7.3200000000000015E-2</v>
       </c>
     </row>
-    <row r="741" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>684</v>
       </c>
@@ -40746,7 +40754,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="742" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>684</v>
       </c>
@@ -40796,7 +40804,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="743" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>684</v>
       </c>
@@ -40846,7 +40854,7 @@
         <v>0.33799999999999958</v>
       </c>
     </row>
-    <row r="744" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>684</v>
       </c>
@@ -40896,7 +40904,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="745" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>684</v>
       </c>
@@ -40946,7 +40954,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="746" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>684</v>
       </c>
@@ -40996,7 +41004,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="747" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>684</v>
       </c>
@@ -41046,7 +41054,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="748" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>684</v>
       </c>
@@ -41096,7 +41104,7 @@
         <v>0.21686666666666654</v>
       </c>
     </row>
-    <row r="749" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>684</v>
       </c>
@@ -41146,7 +41154,7 @@
         <v>3.280000000000001E-2</v>
       </c>
     </row>
-    <row r="750" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>684</v>
       </c>
@@ -41196,7 +41204,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="751" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>684</v>
       </c>
@@ -41246,7 +41254,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>684</v>
       </c>
@@ -41296,7 +41304,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>684</v>
       </c>
@@ -41346,7 +41354,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>684</v>
       </c>
@@ -41396,7 +41404,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>684</v>
       </c>
@@ -41446,7 +41454,7 @@
         <v>0.33799999999999958</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>684</v>
       </c>
@@ -41496,7 +41504,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>684</v>
       </c>
@@ -41546,7 +41554,7 @@
         <v>0.24093333333333317</v>
       </c>
     </row>
-    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>684</v>
       </c>
@@ -41596,7 +41604,7 @@
         <v>0.21686666666666654</v>
       </c>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>684</v>
       </c>
@@ -41646,7 +41654,7 @@
         <v>7.2000000000000036E-2</v>
       </c>
     </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>684</v>
       </c>
@@ -41696,7 +41704,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>684</v>
       </c>
@@ -41746,7 +41754,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>684</v>
       </c>
@@ -41796,7 +41804,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>684</v>
       </c>
@@ -41846,7 +41854,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="764" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>684</v>
       </c>
@@ -41896,7 +41904,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>684</v>
       </c>
@@ -41946,7 +41954,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>684</v>
       </c>
@@ -41996,7 +42004,7 @@
         <v>0.14219999999999994</v>
       </c>
     </row>
-    <row r="767" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>684</v>
       </c>
@@ -42046,7 +42054,7 @@
         <v>0.17286666666666661</v>
       </c>
     </row>
-    <row r="768" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>684</v>
       </c>
@@ -42096,7 +42104,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="769" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>684</v>
       </c>
@@ -42146,7 +42154,7 @@
         <v>0.33799999999999958</v>
       </c>
     </row>
-    <row r="770" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>684</v>
       </c>
@@ -42196,7 +42204,7 @@
         <v>3.3466666666666679E-2</v>
       </c>
     </row>
-    <row r="771" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>684</v>
       </c>
@@ -42246,7 +42254,7 @@
         <v>5.1800000000000027E-2</v>
       </c>
     </row>
-    <row r="772" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>684</v>
       </c>
@@ -42296,7 +42304,7 @@
         <v>5.2333333333333364E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>684</v>
       </c>
@@ -42346,7 +42354,7 @@
         <v>1.7333333333333336E-2</v>
       </c>
     </row>
-    <row r="774" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>684</v>
       </c>
@@ -42396,7 +42404,7 @@
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
-    <row r="775" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>684</v>
       </c>
@@ -42446,7 +42454,7 @@
         <v>0.31846666666666623</v>
       </c>
     </row>
-    <row r="776" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>684</v>
       </c>
@@ -42496,7 +42504,7 @@
         <v>2.9666666666666678E-2</v>
       </c>
     </row>
-    <row r="777" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>684</v>
       </c>
@@ -42546,7 +42554,7 @@
         <v>1.1066666666666666E-2</v>
       </c>
     </row>
-    <row r="778" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>684</v>
       </c>
@@ -42596,7 +42604,7 @@
         <v>9.0000000000000052E-2</v>
       </c>
     </row>
-    <row r="779" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>684</v>
       </c>
@@ -42646,7 +42654,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="780" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>684</v>
       </c>
@@ -42696,7 +42704,7 @@
         <v>4.3600000000000028E-2</v>
       </c>
     </row>
-    <row r="781" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>684</v>
       </c>
@@ -42746,7 +42754,7 @@
         <v>0.18419999999999986</v>
       </c>
     </row>
-    <row r="782" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>684</v>
       </c>
@@ -42796,7 +42804,7 @@
         <v>0.20786666666666653</v>
       </c>
     </row>
-    <row r="783" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>684</v>
       </c>
@@ -42846,7 +42854,7 @@
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
-    <row r="784" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>684</v>
       </c>
@@ -42896,7 +42904,7 @@
         <v>1.7333333333333336E-2</v>
       </c>
     </row>
-    <row r="785" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>684</v>
       </c>
@@ -42946,7 +42954,7 @@
         <v>5.2333333333333364E-2</v>
       </c>
     </row>
-    <row r="786" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>684</v>
       </c>
@@ -42996,7 +43004,7 @@
         <v>4.7800000000000023E-2</v>
       </c>
     </row>
-    <row r="787" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>684</v>
       </c>
@@ -43046,7 +43054,7 @@
         <v>3.6133333333333351E-2</v>
       </c>
     </row>
-    <row r="788" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>684</v>
       </c>
@@ -43096,7 +43104,7 @@
         <v>9.2133333333333373E-2</v>
       </c>
     </row>
-    <row r="789" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>684</v>
       </c>
@@ -43146,7 +43154,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="790" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>684</v>
       </c>
@@ -43196,7 +43204,7 @@
         <v>1.3600000000000001E-2</v>
       </c>
     </row>
-    <row r="791" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>684</v>
       </c>
@@ -43246,7 +43254,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="792" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>684</v>
       </c>
@@ -43296,7 +43304,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="793" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>684</v>
       </c>
@@ -43346,7 +43354,7 @@
         <v>9.1600000000000015E-2</v>
       </c>
     </row>
-    <row r="794" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>684</v>
       </c>
@@ -43396,7 +43404,7 @@
         <v>0.10759999999999997</v>
       </c>
     </row>
-    <row r="795" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>684</v>
       </c>
@@ -43446,7 +43454,7 @@
         <v>6.3533333333333386E-2</v>
       </c>
     </row>
-    <row r="796" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>684</v>
       </c>
@@ -43496,7 +43504,7 @@
         <v>0.35526666666666623</v>
       </c>
     </row>
-    <row r="797" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>684</v>
       </c>
@@ -43546,7 +43554,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="798" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>684</v>
       </c>
@@ -43596,7 +43604,7 @@
         <v>3.0266666666666678E-2</v>
       </c>
     </row>
-    <row r="799" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>684</v>
       </c>
@@ -43646,7 +43654,7 @@
         <v>0.28526666666666645</v>
       </c>
     </row>
-    <row r="800" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>684</v>
       </c>
@@ -43696,7 +43704,7 @@
         <v>3.0066666666666672E-2</v>
       </c>
     </row>
-    <row r="801" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>684</v>
       </c>
@@ -43746,7 +43754,7 @@
         <v>4.4666666666666688E-2</v>
       </c>
     </row>
-    <row r="802" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>684</v>
       </c>
@@ -43796,7 +43804,7 @@
         <v>0.19159999999999985</v>
       </c>
     </row>
-    <row r="803" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>684</v>
       </c>
@@ -43846,7 +43854,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="804" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>684</v>
       </c>
@@ -43896,7 +43904,7 @@
         <v>0.32439999999999958</v>
       </c>
     </row>
-    <row r="805" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>684</v>
       </c>
@@ -43946,7 +43954,7 @@
         <v>3.6866666666666686E-2</v>
       </c>
     </row>
-    <row r="806" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>684</v>
       </c>
@@ -43996,7 +44004,7 @@
         <v>0.35986666666666622</v>
       </c>
     </row>
-    <row r="807" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>684</v>
       </c>
@@ -44046,7 +44054,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="808" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>684</v>
       </c>
@@ -44096,7 +44104,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="809" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>684</v>
       </c>
@@ -44146,7 +44154,7 @@
         <v>6.4466666666666686E-2</v>
       </c>
     </row>
-    <row r="810" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>684</v>
       </c>
@@ -44196,7 +44204,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="811" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>684</v>
       </c>
@@ -44246,7 +44254,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="812" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>684</v>
       </c>
@@ -44296,7 +44304,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="813" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>684</v>
       </c>
@@ -44346,7 +44354,7 @@
         <v>6.4600000000000019E-2</v>
       </c>
     </row>
-    <row r="814" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>684</v>
       </c>
@@ -44396,7 +44404,7 @@
         <v>3.6866666666666686E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>684</v>
       </c>
@@ -44446,7 +44454,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="816" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>684</v>
       </c>
@@ -44496,7 +44504,7 @@
         <v>0.10006666666666666</v>
       </c>
     </row>
-    <row r="817" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>684</v>
       </c>
@@ -44546,7 +44554,7 @@
         <v>0.29053333333333309</v>
       </c>
     </row>
-    <row r="818" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>684</v>
       </c>
@@ -44596,7 +44604,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="819" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>684</v>
       </c>
@@ -44646,7 +44654,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="820" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>684</v>
       </c>
@@ -44696,7 +44704,7 @@
         <v>8.6733333333333357E-2</v>
       </c>
     </row>
-    <row r="821" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>684</v>
       </c>
@@ -44746,7 +44754,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="822" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>684</v>
       </c>
@@ -44796,7 +44804,7 @@
         <v>7.7133333333333345E-2</v>
       </c>
     </row>
-    <row r="823" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>684</v>
       </c>
@@ -44846,7 +44854,7 @@
         <v>0.10759999999999997</v>
       </c>
     </row>
-    <row r="824" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>684</v>
       </c>
@@ -44946,7 +44954,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="826" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>684</v>
       </c>
@@ -44996,7 +45004,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="827" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>684</v>
       </c>
@@ -45046,7 +45054,7 @@
         <v>0.34886666666666621</v>
       </c>
     </row>
-    <row r="828" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>684</v>
       </c>
@@ -45096,7 +45104,7 @@
         <v>6.3533333333333386E-2</v>
       </c>
     </row>
-    <row r="829" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>684</v>
       </c>
@@ -45146,7 +45154,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="830" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>684</v>
       </c>
@@ -45196,7 +45204,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="831" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>684</v>
       </c>
@@ -45246,7 +45254,7 @@
         <v>1.8466666666666666E-2</v>
       </c>
     </row>
-    <row r="832" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>684</v>
       </c>
@@ -45296,7 +45304,7 @@
         <v>0.38273333333333287</v>
       </c>
     </row>
-    <row r="833" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>684</v>
       </c>
@@ -45346,7 +45354,7 @@
         <v>0.10006666666666666</v>
       </c>
     </row>
-    <row r="834" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>684</v>
       </c>
@@ -45396,7 +45404,7 @@
         <v>3.0266666666666678E-2</v>
       </c>
     </row>
-    <row r="835" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>684</v>
       </c>
@@ -45446,7 +45454,7 @@
         <v>8.6733333333333357E-2</v>
       </c>
     </row>
-    <row r="836" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>684</v>
       </c>
@@ -45496,7 +45504,7 @@
         <v>6.3533333333333386E-2</v>
       </c>
     </row>
-    <row r="837" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>684</v>
       </c>
@@ -45546,7 +45554,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>684</v>
       </c>
@@ -45596,7 +45604,7 @@
         <v>3.0266666666666678E-2</v>
       </c>
     </row>
-    <row r="839" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>684</v>
       </c>
@@ -45646,7 +45654,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="840" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>684</v>
       </c>
@@ -45696,7 +45704,7 @@
         <v>3.0066666666666672E-2</v>
       </c>
     </row>
-    <row r="841" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>684</v>
       </c>
@@ -45746,7 +45754,7 @@
         <v>0.2149333333333332</v>
       </c>
     </row>
-    <row r="842" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>684</v>
       </c>
@@ -45796,7 +45804,7 @@
         <v>3.4066666666666683E-2</v>
       </c>
     </row>
-    <row r="843" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>684</v>
       </c>
@@ -45846,7 +45854,7 @@
         <v>8.6733333333333357E-2</v>
       </c>
     </row>
-    <row r="844" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>684</v>
       </c>
@@ -45896,7 +45904,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="845" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>684</v>
       </c>
@@ -45946,7 +45954,7 @@
         <v>6.3533333333333386E-2</v>
       </c>
     </row>
-    <row r="846" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>684</v>
       </c>
@@ -45996,7 +46004,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="847" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>684</v>
       </c>
@@ -46046,7 +46054,7 @@
         <v>8.6733333333333357E-2</v>
       </c>
     </row>
-    <row r="848" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>684</v>
       </c>
@@ -46096,7 +46104,7 @@
         <v>6.3533333333333386E-2</v>
       </c>
     </row>
-    <row r="849" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>684</v>
       </c>
@@ -46146,7 +46154,7 @@
         <v>3.6866666666666686E-2</v>
       </c>
     </row>
-    <row r="850" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>684</v>
       </c>
@@ -46196,7 +46204,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="851" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>684</v>
       </c>
@@ -46246,7 +46254,7 @@
         <v>8.6733333333333357E-2</v>
       </c>
     </row>
-    <row r="852" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>684</v>
       </c>
@@ -46296,7 +46304,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="853" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>684</v>
       </c>
@@ -46346,7 +46354,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>684</v>
       </c>
@@ -46396,7 +46404,7 @@
         <v>3.6866666666666686E-2</v>
       </c>
     </row>
-    <row r="855" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>684</v>
       </c>
@@ -46446,7 +46454,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="856" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>684</v>
       </c>
@@ -46496,7 +46504,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="857" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>684</v>
       </c>
@@ -46546,7 +46554,7 @@
         <v>0.22366666666666646</v>
       </c>
     </row>
-    <row r="858" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>684</v>
       </c>
@@ -46596,7 +46604,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="859" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>684</v>
       </c>
@@ -46646,7 +46654,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="860" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>684</v>
       </c>
@@ -46696,7 +46704,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="861" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>684</v>
       </c>
@@ -46746,7 +46754,7 @@
         <v>0.10759999999999997</v>
       </c>
     </row>
-    <row r="862" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>684</v>
       </c>
@@ -46796,7 +46804,7 @@
         <v>0.12626666666666664</v>
       </c>
     </row>
-    <row r="863" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>684</v>
       </c>
@@ -46846,7 +46854,7 @@
         <v>3.6866666666666686E-2</v>
       </c>
     </row>
-    <row r="864" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>684</v>
       </c>
@@ -46896,7 +46904,7 @@
         <v>0.38273333333333287</v>
       </c>
     </row>
-    <row r="865" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>684</v>
       </c>
@@ -46946,7 +46954,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="866" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>684</v>
       </c>
@@ -46996,7 +47004,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="867" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>684</v>
       </c>
@@ -47046,7 +47054,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="868" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>684</v>
       </c>
@@ -47096,7 +47104,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="869" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>684</v>
       </c>
@@ -47146,7 +47154,7 @@
         <v>0.31873333333333309</v>
       </c>
     </row>
-    <row r="870" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>684</v>
       </c>
@@ -47196,7 +47204,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="871" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>684</v>
       </c>
@@ -47246,7 +47254,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="872" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>684</v>
       </c>
@@ -47296,7 +47304,7 @@
         <v>3.0266666666666678E-2</v>
       </c>
     </row>
-    <row r="873" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>684</v>
       </c>
@@ -47346,7 +47354,7 @@
         <v>0.10006666666666666</v>
       </c>
     </row>
-    <row r="874" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>684</v>
       </c>
@@ -47396,7 +47404,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="875" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>684</v>
       </c>
@@ -47446,7 +47454,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="876" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>684</v>
       </c>
@@ -47496,7 +47504,7 @@
         <v>0.25333333333333313</v>
       </c>
     </row>
-    <row r="877" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>684</v>
       </c>
@@ -47546,7 +47554,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>684</v>
       </c>
@@ -47596,7 +47604,7 @@
         <v>0.38273333333333287</v>
       </c>
     </row>
-    <row r="879" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>684</v>
       </c>
@@ -47646,7 +47654,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="880" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>684</v>
       </c>
@@ -47696,7 +47704,7 @@
         <v>0.25333333333333313</v>
       </c>
     </row>
-    <row r="881" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>684</v>
       </c>
@@ -47746,7 +47754,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="882" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>684</v>
       </c>
@@ -47796,7 +47804,7 @@
         <v>9.3066666666666686E-2</v>
       </c>
     </row>
-    <row r="883" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>684</v>
       </c>
@@ -47846,7 +47854,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="884" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>684</v>
       </c>
@@ -47896,7 +47904,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="885" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>684</v>
       </c>
@@ -47946,7 +47954,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="886" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>684</v>
       </c>
@@ -47996,7 +48004,7 @@
         <v>0.13139999999999996</v>
       </c>
     </row>
-    <row r="887" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>684</v>
       </c>
@@ -48046,7 +48054,7 @@
         <v>3.6866666666666686E-2</v>
       </c>
     </row>
-    <row r="888" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>684</v>
       </c>
@@ -48096,7 +48104,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="889" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>684</v>
       </c>
@@ -48146,7 +48154,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="890" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>684</v>
       </c>
@@ -48196,7 +48204,7 @@
         <v>8.6733333333333357E-2</v>
       </c>
     </row>
-    <row r="891" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>684</v>
       </c>
@@ -48246,7 +48254,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="892" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>684</v>
       </c>
@@ -48296,7 +48304,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="893" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>684</v>
       </c>
@@ -48346,7 +48354,7 @@
         <v>0.38273333333333287</v>
       </c>
     </row>
-    <row r="894" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>684</v>
       </c>
@@ -48396,7 +48404,7 @@
         <v>0.25333333333333313</v>
       </c>
     </row>
-    <row r="895" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>684</v>
       </c>
@@ -48446,7 +48454,7 @@
         <v>0.25333333333333313</v>
       </c>
     </row>
-    <row r="896" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>684</v>
       </c>
@@ -48496,7 +48504,7 @@
         <v>6.3533333333333386E-2</v>
       </c>
     </row>
-    <row r="897" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>684</v>
       </c>
@@ -48546,7 +48554,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="898" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>944</v>
       </c>
@@ -48596,7 +48604,7 @@
         <v>0.18062499999999992</v>
       </c>
     </row>
-    <row r="899" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>944</v>
       </c>
@@ -48646,7 +48654,7 @@
         <v>9.3125000000000013E-2</v>
       </c>
     </row>
-    <row r="900" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>944</v>
       </c>
@@ -48696,7 +48704,7 @@
         <v>9.3125000000000013E-2</v>
       </c>
     </row>
-    <row r="901" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>944</v>
       </c>
@@ -48746,7 +48754,7 @@
         <v>7.5000000000000039E-2</v>
       </c>
     </row>
-    <row r="902" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>944</v>
       </c>
@@ -48796,7 +48804,7 @@
         <v>8.8750000000000023E-2</v>
       </c>
     </row>
-    <row r="903" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>944</v>
       </c>
@@ -48846,7 +48854,7 @@
         <v>7.7500000000000041E-2</v>
       </c>
     </row>
-    <row r="904" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>944</v>
       </c>
@@ -48896,7 +48904,7 @@
         <v>7.6875000000000027E-2</v>
       </c>
     </row>
-    <row r="905" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>944</v>
       </c>
@@ -48946,7 +48954,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="906" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>944</v>
       </c>
@@ -48996,7 +49004,7 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="907" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>944</v>
       </c>
@@ -49046,7 +49054,7 @@
         <v>0.12250000000000003</v>
       </c>
     </row>
-    <row r="908" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>944</v>
       </c>
@@ -49096,7 +49104,7 @@
         <v>0.18437499999999996</v>
       </c>
     </row>
-    <row r="909" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>944</v>
       </c>
@@ -49146,7 +49154,7 @@
         <v>9.3125000000000013E-2</v>
       </c>
     </row>
-    <row r="910" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>944</v>
       </c>
@@ -49196,7 +49204,7 @@
         <v>0.18062499999999992</v>
       </c>
     </row>
-    <row r="911" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>944</v>
       </c>
@@ -49246,7 +49254,7 @@
         <v>0.10625000000000004</v>
       </c>
     </row>
-    <row r="912" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>944</v>
       </c>
@@ -49296,7 +49304,7 @@
         <v>0.12250000000000003</v>
       </c>
     </row>
-    <row r="913" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>944</v>
       </c>
@@ -49346,7 +49354,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="914" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>944</v>
       </c>
@@ -49396,7 +49404,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="915" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>944</v>
       </c>
@@ -49446,7 +49454,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="916" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>944</v>
       </c>
@@ -49496,7 +49504,7 @@
         <v>0.15874999999999995</v>
       </c>
     </row>
-    <row r="917" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>944</v>
       </c>
@@ -49546,7 +49554,7 @@
         <v>0.13999999999999996</v>
       </c>
     </row>
-    <row r="918" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>944</v>
       </c>
@@ -49596,7 +49604,7 @@
         <v>0.13999999999999996</v>
       </c>
     </row>
-    <row r="919" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>944</v>
       </c>
@@ -49646,7 +49654,7 @@
         <v>3.0625000000000003E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
         <v>944</v>
       </c>
@@ -49696,7 +49704,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="921" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>944</v>
       </c>
@@ -49746,7 +49754,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="922" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>944</v>
       </c>
@@ -49796,7 +49804,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="923" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>944</v>
       </c>
@@ -49846,7 +49854,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="924" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
         <v>944</v>
       </c>
@@ -49896,7 +49904,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="925" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
         <v>944</v>
       </c>
@@ -49946,7 +49954,7 @@
         <v>0.15937499999999999</v>
       </c>
     </row>
-    <row r="926" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>944</v>
       </c>
@@ -49996,7 +50004,7 @@
         <v>0.20812499999999995</v>
       </c>
     </row>
-    <row r="927" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
         <v>944</v>
       </c>
@@ -50046,7 +50054,7 @@
         <v>0.18312499999999993</v>
       </c>
     </row>
-    <row r="928" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>944</v>
       </c>
@@ -50096,7 +50104,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="929" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
         <v>944</v>
       </c>
@@ -50146,7 +50154,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="930" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
         <v>944</v>
       </c>
@@ -50196,7 +50204,7 @@
         <v>0.15937499999999999</v>
       </c>
     </row>
-    <row r="931" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>944</v>
       </c>
@@ -50246,7 +50254,7 @@
         <v>0.18437499999999996</v>
       </c>
     </row>
-    <row r="932" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
         <v>944</v>
       </c>
@@ -50296,7 +50304,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="933" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>944</v>
       </c>
@@ -50346,7 +50354,7 @@
         <v>0.12250000000000003</v>
       </c>
     </row>
-    <row r="934" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>944</v>
       </c>
@@ -50396,7 +50404,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="935" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>944</v>
       </c>
@@ -50446,7 +50454,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="936" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
         <v>944</v>
       </c>
@@ -50496,7 +50504,7 @@
         <v>0.23687499999999992</v>
       </c>
     </row>
-    <row r="937" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>944</v>
       </c>
@@ -50546,7 +50554,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="938" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>944</v>
       </c>
@@ -50596,7 +50604,7 @@
         <v>0.15937499999999999</v>
       </c>
     </row>
-    <row r="939" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>944</v>
       </c>
@@ -50646,7 +50654,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="940" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>944</v>
       </c>
@@ -50696,7 +50704,7 @@
         <v>0.18812499999999999</v>
       </c>
     </row>
-    <row r="941" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>944</v>
       </c>
@@ -50746,7 +50754,7 @@
         <v>7.1875000000000022E-2</v>
       </c>
     </row>
-    <row r="942" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>944</v>
       </c>
@@ -50796,7 +50804,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="943" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>944</v>
       </c>
@@ -50846,7 +50854,7 @@
         <v>0.11937500000000002</v>
       </c>
     </row>
-    <row r="944" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>944</v>
       </c>
@@ -50896,7 +50904,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="945" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>944</v>
       </c>
@@ -50946,7 +50954,7 @@
         <v>0.18812499999999999</v>
       </c>
     </row>
-    <row r="946" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>944</v>
       </c>
@@ -50996,7 +51004,7 @@
         <v>0.20812499999999995</v>
       </c>
     </row>
-    <row r="947" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>944</v>
       </c>
@@ -51046,7 +51054,7 @@
         <v>0.18312499999999993</v>
       </c>
     </row>
-    <row r="948" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>944</v>
       </c>
@@ -51096,7 +51104,7 @@
         <v>0.12250000000000003</v>
       </c>
     </row>
-    <row r="949" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>944</v>
       </c>
@@ -51146,7 +51154,7 @@
         <v>0.10625000000000004</v>
       </c>
     </row>
-    <row r="950" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
         <v>944</v>
       </c>
@@ -51196,7 +51204,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="951" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>944</v>
       </c>
@@ -51246,7 +51254,7 @@
         <v>0.18312499999999993</v>
       </c>
     </row>
-    <row r="952" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
         <v>944</v>
       </c>
@@ -51296,7 +51304,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="953" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>944</v>
       </c>
@@ -51346,7 +51354,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="954" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>944</v>
       </c>
@@ -51396,7 +51404,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="955" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>944</v>
       </c>
@@ -51446,7 +51454,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="956" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>944</v>
       </c>
@@ -51496,7 +51504,7 @@
         <v>0.10687500000000003</v>
       </c>
     </row>
-    <row r="957" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>944</v>
       </c>
@@ -51546,7 +51554,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="958" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
         <v>944</v>
       </c>
@@ -51596,7 +51604,7 @@
         <v>9.3125000000000013E-2</v>
       </c>
     </row>
-    <row r="959" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>944</v>
       </c>
@@ -51646,7 +51654,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="960" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>944</v>
       </c>
@@ -51696,7 +51704,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="961" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>944</v>
       </c>
@@ -51746,7 +51754,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="962" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
         <v>944</v>
       </c>
@@ -51796,7 +51804,7 @@
         <v>5.2500000000000005E-2</v>
       </c>
     </row>
-    <row r="963" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>944</v>
       </c>
@@ -51846,7 +51854,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="964" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
         <v>944</v>
       </c>
@@ -51896,7 +51904,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="965" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>944</v>
       </c>
@@ -51946,7 +51954,7 @@
         <v>0.12250000000000003</v>
       </c>
     </row>
-    <row r="966" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>944</v>
       </c>
@@ -51996,7 +52004,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="967" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>944</v>
       </c>
@@ -52046,7 +52054,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="968" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
         <v>944</v>
       </c>
@@ -52096,7 +52104,7 @@
         <v>7.375000000000001E-2</v>
       </c>
     </row>
-    <row r="969" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
         <v>944</v>
       </c>
@@ -52146,7 +52154,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="970" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
         <v>944</v>
       </c>
@@ -52196,7 +52204,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="971" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
         <v>944</v>
       </c>
@@ -52246,7 +52254,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="972" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
         <v>944</v>
       </c>
@@ -52296,7 +52304,7 @@
         <v>0.13999999999999996</v>
       </c>
     </row>
-    <row r="973" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>944</v>
       </c>
@@ -52346,7 +52354,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="974" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
         <v>944</v>
       </c>
@@ -52396,7 +52404,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="975" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>944</v>
       </c>
@@ -52446,7 +52454,7 @@
         <v>0.18812499999999999</v>
       </c>
     </row>
-    <row r="976" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
         <v>944</v>
       </c>
@@ -52496,7 +52504,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="977" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>944</v>
       </c>
@@ -52546,7 +52554,7 @@
         <v>0.20812499999999995</v>
       </c>
     </row>
-    <row r="978" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>944</v>
       </c>
@@ -52596,7 +52604,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="979" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>944</v>
       </c>
@@ -52646,7 +52654,7 @@
         <v>8.8750000000000023E-2</v>
       </c>
     </row>
-    <row r="980" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>944</v>
       </c>
@@ -52696,7 +52704,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="981" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>944</v>
       </c>
@@ -52746,7 +52754,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="982" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>944</v>
       </c>
@@ -52796,7 +52804,7 @@
         <v>8.8750000000000023E-2</v>
       </c>
     </row>
-    <row r="983" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>944</v>
       </c>
@@ -52846,7 +52854,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="984" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>944</v>
       </c>
@@ -52896,7 +52904,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="985" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>944</v>
       </c>
@@ -52946,7 +52954,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="986" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
         <v>944</v>
       </c>
@@ -52996,7 +53004,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="987" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
         <v>944</v>
       </c>
@@ -53046,7 +53054,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="988" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>944</v>
       </c>
@@ -53096,7 +53104,7 @@
         <v>0.18312499999999993</v>
       </c>
     </row>
-    <row r="989" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>944</v>
       </c>
@@ -53146,7 +53154,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="990" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>944</v>
       </c>
@@ -53196,7 +53204,7 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="991" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>944</v>
       </c>
@@ -53246,7 +53254,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="992" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>944</v>
       </c>
@@ -53296,7 +53304,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="993" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>944</v>
       </c>
@@ -53346,7 +53354,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="994" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
         <v>944</v>
       </c>
@@ -53396,7 +53404,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="995" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
         <v>944</v>
       </c>
@@ -53446,7 +53454,7 @@
         <v>0.138125</v>
       </c>
     </row>
-    <row r="996" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
         <v>944</v>
       </c>
@@ -53496,7 +53504,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="997" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
         <v>944</v>
       </c>
@@ -53546,7 +53554,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="998" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
         <v>944</v>
       </c>
@@ -53596,7 +53604,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="999" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
         <v>944</v>
       </c>
@@ -53646,7 +53654,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="1000" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
         <v>944</v>
       </c>
@@ -53696,7 +53704,7 @@
         <v>0.18812499999999999</v>
       </c>
     </row>
-    <row r="1001" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
         <v>944</v>
       </c>
@@ -53746,7 +53754,7 @@
         <v>0.18437499999999996</v>
       </c>
     </row>
-    <row r="1002" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
         <v>944</v>
       </c>
@@ -53796,7 +53804,7 @@
         <v>0.13437500000000002</v>
       </c>
     </row>
-    <row r="1003" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
         <v>944</v>
       </c>
@@ -53846,7 +53854,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="1004" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
         <v>944</v>
       </c>
@@ -53896,7 +53904,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="1005" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
         <v>944</v>
       </c>
@@ -53946,7 +53954,7 @@
         <v>0.20812499999999995</v>
       </c>
     </row>
-    <row r="1006" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
         <v>944</v>
       </c>
@@ -53996,7 +54004,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="1007" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
         <v>944</v>
       </c>
@@ -54046,7 +54054,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="1008" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
         <v>944</v>
       </c>
@@ -54096,7 +54104,7 @@
         <v>0.20812499999999995</v>
       </c>
     </row>
-    <row r="1009" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
         <v>944</v>
       </c>
@@ -54146,7 +54154,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="1010" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
         <v>944</v>
       </c>
@@ -54196,7 +54204,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="1011" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
         <v>944</v>
       </c>
@@ -54246,7 +54254,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="1012" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
         <v>944</v>
       </c>
@@ -54296,7 +54304,7 @@
         <v>0.18812499999999999</v>
       </c>
     </row>
-    <row r="1013" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
         <v>944</v>
       </c>
@@ -54346,7 +54354,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="1014" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
         <v>944</v>
       </c>
@@ -54396,7 +54404,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="1015" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
         <v>944</v>
       </c>
@@ -54446,7 +54454,7 @@
         <v>0.18312499999999993</v>
       </c>
     </row>
-    <row r="1016" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
         <v>944</v>
       </c>
@@ -54496,7 +54504,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="1017" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
         <v>944</v>
       </c>
@@ -54546,7 +54554,7 @@
         <v>0.12250000000000003</v>
       </c>
     </row>
-    <row r="1018" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
         <v>944</v>
       </c>
@@ -54596,7 +54604,7 @@
         <v>0.10250000000000002</v>
       </c>
     </row>
-    <row r="1019" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
         <v>944</v>
       </c>
@@ -54646,7 +54654,7 @@
         <v>0.18437499999999996</v>
       </c>
     </row>
-    <row r="1020" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
         <v>944</v>
       </c>
@@ -54696,7 +54704,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="1021" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
         <v>944</v>
       </c>
@@ -54746,7 +54754,7 @@
         <v>0.21437499999999993</v>
       </c>
     </row>
-    <row r="1022" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
         <v>944</v>
       </c>
@@ -54796,7 +54804,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="1023" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
         <v>944</v>
       </c>
@@ -54846,7 +54854,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="1024" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
         <v>944</v>
       </c>
@@ -54896,7 +54904,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="1025" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
         <v>944</v>
       </c>
@@ -54947,6 +54955,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1025" xr:uid="{A77CF24C-D650-4735-8E85-166A960AD89B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CogToOriginXY"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="None"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="P"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="P"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/site/Summary_short.xlsx
+++ b/docs/site/Summary_short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Desktop\SajatSigStat\docs\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560498BB-37C4-47E0-9FBB-2404957086AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00084EE9-9DE8-4126-97A4-40A7C4CD7938}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
   </bookViews>
@@ -3695,11 +3695,12 @@
   <dimension ref="A1:P1025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1034" sqref="D1034"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3904,7 +3905,7 @@
         <v>2.1929815234226858E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>3.08238801981588E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>3.0482700892857137E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>200</v>
       </c>
@@ -18354,7 +18355,7 @@
         <v>3.4471387987012984E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>200</v>
       </c>
@@ -24304,7 +24305,7 @@
         <v>0.19404761904761902</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>361</v>
       </c>
@@ -25804,7 +25805,7 @@
         <v>0.27095238095238094</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>361</v>
       </c>
@@ -28104,7 +28105,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>523</v>
       </c>
@@ -33554,7 +33555,7 @@
         <v>0.33380681818181818</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>523</v>
       </c>
@@ -38304,7 +38305,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>684</v>
       </c>
@@ -44904,7 +44905,7 @@
         <v>0.20206666666666656</v>
       </c>
     </row>
-    <row r="825" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>684</v>
       </c>
@@ -49604,7 +49605,7 @@
         <v>0.13999999999999996</v>
       </c>
     </row>
-    <row r="919" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>944</v>
       </c>
@@ -54955,25 +54956,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1025" xr:uid="{A77CF24C-D650-4735-8E85-166A960AD89B}">
+  <autoFilter ref="A1:P1025" xr:uid="{EE82CB37-FB85-4D94-B055-08D2E6E6112E}">
     <filterColumn colId="3">
       <filters>
-        <filter val="CogToOriginXY"/>
+        <filter val="None"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="None"/>
+        <filter val="X01Y01"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="P"/>
+        <filter val="None"/>
       </filters>
     </filterColumn>
     <filterColumn colId="9">
       <filters>
-        <filter val="P"/>
+        <filter val="XYP"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/site/Summary_short.xlsx
+++ b/docs/site/Summary_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Desktop\SajatSigStat\docs\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00084EE9-9DE8-4126-97A4-40A7C4CD7938}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F740D-539E-47B0-B278-7FE77B8930A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
+    <workbookView xWindow="6435" yWindow="8010" windowWidth="21600" windowHeight="12480" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -3371,11 +3371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -3692,10 +3693,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D5111C-8C31-41D8-B9B5-81DFDD017381}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P1025"/>
+  <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N1026" sqref="N1026:P1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,6 +3704,7 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3905,7 +3907,7 @@
         <v>2.1929815234226858E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>0.14013447421999126</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>3.0482700892857137E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>200</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>7.0149739583333329E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>200</v>
       </c>
@@ -19755,7 +19757,7 @@
         <v>7.1616697104978366E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>361</v>
       </c>
@@ -24305,7 +24307,7 @@
         <v>0.19404761904761902</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>361</v>
       </c>
@@ -28105,7 +28107,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>523</v>
       </c>
@@ -30605,7 +30607,7 @@
         <v>0.14930555555555558</v>
       </c>
     </row>
-    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>523</v>
       </c>
@@ -37305,7 +37307,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>684</v>
       </c>
@@ -38305,7 +38307,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>684</v>
       </c>
@@ -49605,7 +49607,7 @@
         <v>0.13999999999999996</v>
       </c>
     </row>
-    <row r="919" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>944</v>
       </c>
@@ -52605,7 +52607,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="979" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>944</v>
       </c>
@@ -54955,16 +54957,24 @@
         <v>0.18812499999999999</v>
       </c>
     </row>
+    <row r="1026" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N1026" s="4"/>
+      <c r="O1026" s="4"/>
+      <c r="P1026" s="4"/>
+    </row>
+    <row r="1027" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O1027" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P1025" xr:uid="{EE82CB37-FB85-4D94-B055-08D2E6E6112E}">
+  <autoFilter ref="A1:P1025" xr:uid="{6A2F8073-4B01-4A3A-9B41-C6680A32048B}">
     <filterColumn colId="3">
       <filters>
-        <filter val="None"/>
+        <filter val="CogToOriginXY"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="X01Y01"/>
+        <filter val="None"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -54974,7 +54984,7 @@
     </filterColumn>
     <filterColumn colId="9">
       <filters>
-        <filter val="XYP"/>
+        <filter val="XY"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/site/Summary_short.xlsx
+++ b/docs/site/Summary_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Desktop\SajatSigStat\docs\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F740D-539E-47B0-B278-7FE77B8930A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{149CFD2F-DF05-4165-9D92-DF666DA61BEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="8010" windowWidth="21600" windowHeight="12480" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D65A621B-04D9-4FB6-80A9-258E476919A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$P$1025</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3696,7 +3697,7 @@
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1026" sqref="N1026:P1026"/>
+      <selection activeCell="I1050" sqref="I1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,7 +3908,7 @@
         <v>2.1929815234226858E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>0.14013447421999126</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>3.0482700892857137E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>200</v>
       </c>
@@ -12107,7 +12108,7 @@
         <v>7.0149739583333329E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>200</v>
       </c>
@@ -19757,7 +19758,7 @@
         <v>7.1616697104978366E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>361</v>
       </c>
@@ -24307,7 +24308,7 @@
         <v>0.19404761904761902</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>361</v>
       </c>
@@ -28107,7 +28108,7 @@
         <v>0.17471590909090909</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>523</v>
       </c>
@@ -30607,7 +30608,7 @@
         <v>0.14930555555555558</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>523</v>
       </c>
@@ -37307,7 +37308,7 @@
         <v>7.1400000000000019E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>684</v>
       </c>
@@ -38307,7 +38308,7 @@
         <v>5.8866666666666692E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>684</v>
       </c>
@@ -49607,7 +49608,7 @@
         <v>0.13999999999999996</v>
       </c>
     </row>
-    <row r="919" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>944</v>
       </c>
@@ -52607,7 +52608,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="979" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>944</v>
       </c>
@@ -54969,12 +54970,12 @@
   <autoFilter ref="A1:P1025" xr:uid="{6A2F8073-4B01-4A3A-9B41-C6680A32048B}">
     <filterColumn colId="3">
       <filters>
-        <filter val="CogToOriginXY"/>
+        <filter val="None"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="None"/>
+        <filter val="X01Y01"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -54984,7 +54985,7 @@
     </filterColumn>
     <filterColumn colId="9">
       <filters>
-        <filter val="XY"/>
+        <filter val="XYP"/>
       </filters>
     </filterColumn>
   </autoFilter>
